--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\个人\Github\Happy2Death\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74019F9D-76CA-42B1-9C18-E70EC67562C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1825A2A4-2DD7-4D35-8506-09318B02FC8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$5:$K$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$5:$K$37</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="134">
   <si>
     <t>用途</t>
   </si>
@@ -394,10 +394,6 @@
   </si>
   <si>
     <t>预留</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-20</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -514,6 +510,58 @@
   </si>
   <si>
     <t>X520</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁路由</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Openwrt x64 Lean</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Supermicro SYS-E100-9APP </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学上网</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机服务器</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supermicro M11SDV-8C-LN4F</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proxmox VE 6.1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟主机:OMV</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT下载，学习Linux</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.11</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-10;12-20</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1490,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1513,7 +1561,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1670,7 +1718,7 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1725,48 +1773,60 @@
     </row>
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="15"/>
+      <c r="B9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>128</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="5"/>
@@ -1776,37 +1836,29 @@
     <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="C11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="C12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>21</v>
@@ -1815,16 +1867,16 @@
         <v>73</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
@@ -1834,117 +1886,137 @@
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="15"/>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>87</v>
+      <c r="I14" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="5"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="7" t="s">
-        <v>100</v>
-      </c>
+      <c r="C15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="5"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="6"/>
+      <c r="M16" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="15"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
@@ -1952,10 +2024,10 @@
       <c r="C18" s="7"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
@@ -1968,31 +2040,21 @@
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="6"/>
+      <c r="C19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="15"/>
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
@@ -2000,13 +2062,14 @@
       <c r="C20" s="7"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>106</v>
+        <v>74</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="I20" s="8"/>
       <c r="J20" s="3"/>
       <c r="K20" s="5"/>
       <c r="L20" s="3"/>
@@ -2015,82 +2078,71 @@
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="H21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="5"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="15"/>
+      <c r="E22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="3">
-        <v>51415</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="3">
-        <v>51415</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="3"/>
       <c r="M23" s="7" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2098,265 +2150,269 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="3">
-        <v>9091</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" s="3">
-        <v>9091</v>
-      </c>
-      <c r="M24" s="6"/>
+      <c r="E24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="D25" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I25" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J25" s="3">
-        <v>1688</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="6"/>
+        <v>51415</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="3">
+        <v>51415</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="E26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" s="3">
+        <v>9091</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="3">
+        <v>9091</v>
+      </c>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="15"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1688</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="10" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="6"/>
+      <c r="C29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="15"/>
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="15"/>
+      <c r="B30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="6"/>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="15"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="15"/>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H34" s="3" t="s">
         <v>6</v>
       </c>
@@ -2370,14 +2426,24 @@
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="B35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="5"/>
+      <c r="H35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="5"/>
       <c r="L35" s="3"/>
@@ -2385,14 +2451,28 @@
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="B36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="5"/>
+      <c r="H36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="5"/>
       <c r="L36" s="3"/>
@@ -2458,10 +2538,40 @@
       <c r="L40" s="3"/>
       <c r="M40" s="6"/>
     </row>
+    <row r="41" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E5:L39">
-    <sortCondition ref="I5:I39"/>
-    <sortCondition ref="J5:J39"/>
+  <sortState ref="E5:L41">
+    <sortCondition ref="I5:I41"/>
+    <sortCondition ref="J5:J41"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1825A2A4-2DD7-4D35-8506-09318B02FC8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B7FB27-5119-455F-89E1-DA9FFE5C3C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="网络功能信息" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$5:$K$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$37</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="138">
   <si>
     <t>用途</t>
   </si>
@@ -418,10 +418,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>双网卡</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>34-35</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -483,14 +479,6 @@
   </si>
   <si>
     <t>enp2s0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>enp3s0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>无线APAP</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -562,6 +550,34 @@
   </si>
   <si>
     <t>4-10;12-20</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>`公网动态</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NAT QNAP TS870PRO WOL TCP/UDP </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAT Pillanangel WOL TCP/UDP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAT Xiaoweiba WOL TCP/UDP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>enp3s0 TCP/UDP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>enp3s0 TCP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI AP</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +853,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -967,6 +983,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1096,7 +1149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,6 +1203,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1540,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1557,11 +1622,12 @@
     <col min="10" max="10" width="7.75" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1622,10 +1688,10 @@
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="4" t="s">
         <v>69</v>
       </c>
@@ -1649,8 +1715,8 @@
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="4" t="s">
         <v>68</v>
       </c>
@@ -1667,13 +1733,13 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1700,9 +1766,9 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="4" t="s">
         <v>55</v>
       </c>
@@ -1718,14 +1784,14 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="4" t="s">
         <v>71</v>
       </c>
@@ -1774,28 +1840,28 @@
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
@@ -1805,28 +1871,28 @@
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="5"/>
@@ -1845,7 +1911,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="11"/>
       <c r="I11" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="14"/>
@@ -1854,8 +1920,8 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
-        <v>117</v>
+      <c r="B12" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>20</v>
@@ -1885,7 +1951,7 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1914,7 +1980,7 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
@@ -1943,7 +2009,7 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="10" t="s">
         <v>93</v>
       </c>
@@ -1962,13 +2028,13 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1990,14 +2056,14 @@
       <c r="K16" s="5"/>
       <c r="L16" s="3"/>
       <c r="M16" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="4" t="s">
         <v>77</v>
       </c>
@@ -2011,18 +2077,24 @@
       <c r="I17" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="3"/>
+      <c r="J17" s="3">
+        <v>9</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="3">
+        <v>50010</v>
+      </c>
       <c r="M17" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="4" t="s">
         <v>65</v>
       </c>
@@ -2039,53 +2111,53 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="6"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>76</v>
@@ -2106,11 +2178,11 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="3"/>
@@ -2124,9 +2196,9 @@
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="4" t="s">
         <v>89</v>
       </c>
@@ -2136,7 +2208,7 @@
         <v>6</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="5"/>
@@ -2147,9 +2219,9 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="12" t="s">
         <v>90</v>
       </c>
@@ -2159,7 +2231,7 @@
         <v>54</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="14"/>
@@ -2168,11 +2240,11 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -2200,19 +2272,19 @@
         <v>51415</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
@@ -2228,15 +2300,15 @@
       <c r="L26" s="3">
         <v>9091</v>
       </c>
-      <c r="M26" s="6"/>
+      <c r="M26" s="7" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="4" t="s">
         <v>67</v>
       </c>
@@ -2257,28 +2329,28 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="11"/>
       <c r="I28" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="14"/>
       <c r="L28" s="11"/>
       <c r="M28" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="10" t="s">
         <v>93</v>
       </c>
@@ -2290,7 +2362,7 @@
         <v>54</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="14"/>
@@ -2299,7 +2371,7 @@
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2323,14 +2395,22 @@
       <c r="I30" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="6"/>
+      <c r="J30" s="3">
+        <v>9</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="3">
+        <v>50009</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="7" t="s">
         <v>60</v>
       </c>
@@ -2352,14 +2432,22 @@
       <c r="I31" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="6"/>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="3">
+        <v>50010</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="10" t="s">
         <v>93</v>
       </c>
@@ -2379,7 +2467,7 @@
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>93</v>
@@ -2390,7 +2478,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="11"/>
       <c r="I33" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="14"/>
@@ -2458,13 +2546,13 @@
         <v>42</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3" t="s">
@@ -2573,8 +2661,22 @@
     <sortCondition ref="I5:I41"/>
     <sortCondition ref="J5:J41"/>
   </sortState>
-  <mergeCells count="1">
+  <mergeCells count="15">
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D25:D28"/>
     <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B16:B29"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B7FB27-5119-455F-89E1-DA9FFE5C3C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE98FB4-188D-4F4A-9D21-4EFDB34397B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$39</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="139">
   <si>
     <t>用途</t>
   </si>
@@ -471,10 +471,6 @@
   </si>
   <si>
     <t>第二网口预留</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>47-50</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -525,10 +521,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>虚拟机服务器</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Supermicro M11SDV-8C-LN4F</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -545,14 +537,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.1.11</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-10;12-20</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>`公网动态</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -578,6 +562,26 @@
   </si>
   <si>
     <t>WIFI AP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-20</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>47-49</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.50</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.49</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVE管理地址</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +747,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,6 +853,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,7 +1159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,22 +1208,55 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1603,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1626,21 +1669,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="A1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1688,10 +1731,10 @@
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
         <v>69</v>
       </c>
@@ -1715,8 +1758,8 @@
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="4" t="s">
         <v>68</v>
       </c>
@@ -1733,13 +1776,13 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1766,9 +1809,9 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="4" t="s">
         <v>55</v>
       </c>
@@ -1784,14 +1827,14 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="4" t="s">
         <v>71</v>
       </c>
@@ -1840,28 +1883,28 @@
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="E9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
@@ -1870,61 +1913,59 @@
     </row>
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="15"/>
+      <c r="B11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="18" t="s">
-        <v>137</v>
-      </c>
+      <c r="B12" s="17"/>
       <c r="C12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>21</v>
@@ -1933,16 +1974,16 @@
         <v>73</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
@@ -1951,7 +1992,7 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="19"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1962,16 +2003,16 @@
         <v>73</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="5"/>
@@ -1980,126 +2021,116 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="15"/>
+      <c r="B15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="J16" s="3">
+        <v>9</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="3">
+        <v>50010</v>
+      </c>
       <c r="M16" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="3">
-        <v>9</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="L17" s="3">
-        <v>50010</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>132</v>
-      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
@@ -2111,65 +2142,64 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="6"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="15"/>
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="15"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="5"/>
@@ -2178,113 +2208,124 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I22" s="8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="5"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="6"/>
+      <c r="M22" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="15"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="3">
+        <v>51415</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="3">
+        <v>51415</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>49</v>
-      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="8" t="s">
         <v>97</v>
       </c>
       <c r="J25" s="3">
-        <v>51415</v>
+        <v>9091</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="3">
-        <v>51415</v>
+        <v>9091</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="4" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
@@ -2292,269 +2333,255 @@
         <v>97</v>
       </c>
       <c r="J26" s="3">
-        <v>9091</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="3">
-        <v>9091</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>136</v>
-      </c>
+        <v>1688</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1688</v>
-      </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="6"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="10" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="15"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" s="3">
-        <v>9</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="3">
-        <v>50009</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>133</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" s="3">
-        <v>9</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="3">
-        <v>50010</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>134</v>
-      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="15"/>
+      <c r="B32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="3">
+        <v>9</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="3">
+        <v>50009</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="15"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="3">
+        <v>9</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="3">
+        <v>50010</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="6"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H36" s="3" t="s">
         <v>6</v>
       </c>
@@ -2568,14 +2595,24 @@
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="5"/>
+      <c r="H37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="5"/>
       <c r="L37" s="3"/>
@@ -2583,14 +2620,28 @@
     </row>
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="B38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="5"/>
+      <c r="H38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="5"/>
       <c r="L38" s="3"/>
@@ -2656,27 +2707,57 @@
       <c r="L42" s="3"/>
       <c r="M42" s="6"/>
     </row>
+    <row r="43" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="6"/>
+    </row>
   </sheetData>
-  <sortState ref="E5:L41">
-    <sortCondition ref="I5:I41"/>
-    <sortCondition ref="J5:J41"/>
+  <sortState ref="E5:L43">
+    <sortCondition ref="I5:I43"/>
+    <sortCondition ref="J5:J43"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D27"/>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B16:B29"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B15:B31"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C27"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE98FB4-188D-4F4A-9D21-4EFDB34397B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CC8333-35D1-4C49-929A-842AD893B486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="2340" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="网络功能信息" sheetId="1" r:id="rId1"/>
@@ -1159,7 +1159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1208,6 +1208,24 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1218,6 +1236,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1232,31 +1256,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1648,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1669,21 +1672,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1731,10 +1734,10 @@
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="4" t="s">
         <v>69</v>
       </c>
@@ -1758,8 +1761,8 @@
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="4" t="s">
         <v>68</v>
       </c>
@@ -1776,13 +1779,13 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1809,9 +1812,9 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="4" t="s">
         <v>55</v>
       </c>
@@ -1832,9 +1835,9 @@
     </row>
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="4" t="s">
         <v>71</v>
       </c>
@@ -1932,7 +1935,7 @@
     </row>
     <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="22" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1963,7 +1966,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
@@ -1992,7 +1995,7 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="17"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
@@ -2021,7 +2024,7 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="10" t="s">
         <v>93</v>
       </c>
@@ -2040,13 +2043,13 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="25" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -2073,9 +2076,9 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="24"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="4" t="s">
         <v>77</v>
       </c>
@@ -2104,9 +2107,9 @@
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="4" t="s">
         <v>65</v>
       </c>
@@ -2123,9 +2126,9 @@
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="4" t="s">
         <v>74</v>
       </c>
@@ -2142,7 +2145,7 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="10" t="s">
         <v>93</v>
       </c>
@@ -2161,11 +2164,11 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="25" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2190,9 +2193,9 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="4" t="s">
         <v>104</v>
       </c>
@@ -2208,9 +2211,9 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="24"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="4" t="s">
         <v>89</v>
       </c>
@@ -2231,9 +2234,9 @@
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="12" t="s">
         <v>90</v>
       </c>
@@ -2252,11 +2255,11 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -2289,9 +2292,9 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="24"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="4" t="s">
         <v>106</v>
       </c>
@@ -2318,9 +2321,9 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="4" t="s">
         <v>67</v>
       </c>
@@ -2341,9 +2344,9 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="12" t="s">
         <v>112</v>
       </c>
@@ -2362,76 +2365,76 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="31"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="20"/>
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="32" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="31"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="31"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="10" t="s">
         <v>93</v>
       </c>
@@ -2452,7 +2455,7 @@
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2491,7 +2494,7 @@
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="17"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="7" t="s">
         <v>60</v>
       </c>
@@ -2528,7 +2531,7 @@
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="10" t="s">
         <v>93</v>
       </c>
@@ -2742,7 +2745,7 @@
     <sortCondition ref="I5:I43"/>
     <sortCondition ref="J5:J43"/>
   </sortState>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="D20:D23"/>
@@ -2758,6 +2761,7 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C28:C30"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CC8333-35D1-4C49-929A-842AD893B486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C64F9-4938-447D-B7CB-7D03F1187320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="2340" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="网络功能信息" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$37</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
   <si>
     <t>用途</t>
   </si>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Debian-OMV</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Transmission-daemon</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -288,10 +284,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>vlmcsd</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>IPTV:LAN4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -341,10 +333,6 @@
   </si>
   <si>
     <t>192.168.1.51</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>KMS服务器</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -463,18 +451,6 @@
   </si>
   <si>
     <t>远程登录控制</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.46</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二网口预留</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>enp2s0</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -521,22 +497,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Supermicro M11SDV-8C-LN4F</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proxmox VE 6.1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟主机:OMV</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PT下载，学习Linux</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>`公网动态</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -553,14 +513,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>enp3s0 TCP/UDP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>enp3s0 TCP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>WIFI AP</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -582,6 +534,31 @@
   </si>
   <si>
     <t>PVE管理地址</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supermicro M11SDV-8C-LN4F
+(Proxmox VE 6.1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMV</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ens19 TCP/UDP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ens19 TCP</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +724,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,12 +830,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,7 +1130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1208,22 +1179,16 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1256,10 +1221,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1649,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1672,21 +1640,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="A1" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1734,12 +1702,12 @@
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>44</v>
@@ -1761,13 +1729,13 @@
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
@@ -1779,17 +1747,17 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
@@ -1812,14 +1780,14 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
@@ -1830,19 +1798,19 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
@@ -1864,10 +1832,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>45</v>
@@ -1886,28 +1854,28 @@
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
@@ -1918,7 +1886,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
@@ -1926,7 +1894,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="11"/>
       <c r="I10" s="13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="14"/>
@@ -1935,8 +1903,8 @@
     </row>
     <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="22" t="s">
-        <v>133</v>
+      <c r="B11" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>20</v>
@@ -1945,7 +1913,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>26</v>
@@ -1957,7 +1925,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
@@ -1966,7 +1934,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
@@ -1974,19 +1942,19 @@
         <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
@@ -1995,7 +1963,7 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
@@ -2003,19 +1971,19 @@
         <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="5"/>
@@ -2024,9 +1992,9 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
@@ -2034,7 +2002,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="11"/>
       <c r="I14" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="14"/>
@@ -2043,20 +2011,20 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>45</v>
@@ -2065,56 +2033,56 @@
         <v>6</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="5"/>
       <c r="L15" s="3"/>
       <c r="M15" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J16" s="3">
         <v>9</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="L16" s="3">
         <v>50010</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
@@ -2126,14 +2094,14 @@
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
@@ -2145,9 +2113,9 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
@@ -2155,7 +2123,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="11"/>
       <c r="I19" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="14"/>
@@ -2164,27 +2132,27 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="5"/>
@@ -2193,16 +2161,16 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
       <c r="I21" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="5"/>
@@ -2211,11 +2179,11 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2223,30 +2191,30 @@
         <v>6</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="5"/>
       <c r="L22" s="3"/>
       <c r="M22" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="14"/>
@@ -2255,341 +2223,343 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="3">
-        <v>51415</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" s="3">
-        <v>51415</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>128</v>
+      </c>
       <c r="E25" s="4" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I25" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J25" s="3">
-        <v>9091</v>
+        <v>51415</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="3">
-        <v>9091</v>
+        <v>51415</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
       <c r="I26" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J26" s="3">
-        <v>1688</v>
-      </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="6"/>
+        <v>9091</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="3">
+        <v>9091</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="19"/>
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="20"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="19"/>
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="32"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="15"/>
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="4"/>
+      <c r="B30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="I30" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="32"/>
+        <v>78</v>
+      </c>
+      <c r="J30" s="3">
+        <v>9</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="3">
+        <v>50009</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="15"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="3">
+        <v>50010</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="3">
-        <v>50009</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>129</v>
-      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33" s="3">
-        <v>9</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" s="3">
-        <v>50010</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>130</v>
-      </c>
+      <c r="B33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="15"/>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="15"/>
+      <c r="B34" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="5"/>
@@ -2598,24 +2568,14 @@
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="3"/>
       <c r="K37" s="5"/>
       <c r="L37" s="3"/>
@@ -2623,28 +2583,14 @@
     </row>
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="3"/>
       <c r="K38" s="5"/>
       <c r="L38" s="3"/>
@@ -2710,58 +2656,27 @@
       <c r="L42" s="3"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="6"/>
-    </row>
-    <row r="44" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="6"/>
-    </row>
   </sheetData>
-  <sortState ref="E5:L43">
-    <sortCondition ref="I5:I43"/>
-    <sortCondition ref="J5:J43"/>
+  <sortState ref="E5:L41">
+    <sortCondition ref="I5:I41"/>
+    <sortCondition ref="J5:J41"/>
   </sortState>
-  <mergeCells count="16">
-    <mergeCell ref="B32:B34"/>
+  <mergeCells count="15">
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B30:B32"/>
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D27"/>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B15:B31"/>
+    <mergeCell ref="B15:B29"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C27"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C25:C28"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C64F9-4938-447D-B7CB-7D03F1187320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F558C7D-1875-4490-A52F-D15B529B2ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$38</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="134">
   <si>
     <t>用途</t>
   </si>
@@ -559,6 +559,10 @@
   </si>
   <si>
     <t>ens19 TCP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAT Bitcomet TCP/UDP</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1191,13 +1195,16 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,9 +1232,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1617,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1640,21 +1644,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1702,10 +1706,10 @@
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="4" t="s">
         <v>67</v>
       </c>
@@ -1729,8 +1733,8 @@
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="4" t="s">
         <v>66</v>
       </c>
@@ -1747,13 +1751,13 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1780,9 +1784,9 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="4" t="s">
         <v>54</v>
       </c>
@@ -1803,9 +1807,9 @@
     </row>
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="4" t="s">
         <v>69</v>
       </c>
@@ -1903,7 +1907,7 @@
     </row>
     <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="22" t="s">
         <v>121</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1934,7 +1938,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
@@ -1963,7 +1967,7 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1992,7 +1996,7 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="10" t="s">
         <v>90</v>
       </c>
@@ -2011,13 +2015,13 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -2044,9 +2048,9 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="24"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="4" t="s">
         <v>75</v>
       </c>
@@ -2075,9 +2079,9 @@
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="4" t="s">
         <v>64</v>
       </c>
@@ -2094,9 +2098,9 @@
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="4" t="s">
         <v>72</v>
       </c>
@@ -2113,7 +2117,7 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="28"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="10" t="s">
         <v>90</v>
       </c>
@@ -2132,11 +2136,11 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2161,9 +2165,9 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4" t="s">
         <v>101</v>
       </c>
@@ -2179,9 +2183,9 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="24"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4" t="s">
         <v>86</v>
       </c>
@@ -2202,9 +2206,9 @@
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="12" t="s">
         <v>87</v>
       </c>
@@ -2223,7 +2227,7 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="17" t="s">
         <v>34</v>
       </c>
@@ -2240,11 +2244,11 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="30" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="20" t="s">
         <v>128</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -2277,9 +2281,9 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="4" t="s">
         <v>103</v>
       </c>
@@ -2306,8 +2310,8 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="4" t="s">
         <v>129</v>
       </c>
@@ -2329,8 +2333,8 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="4" t="s">
         <v>130</v>
       </c>
@@ -2350,7 +2354,7 @@
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="29"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="10" t="s">
         <v>90</v>
       </c>
@@ -2371,7 +2375,7 @@
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2410,65 +2414,67 @@
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="3">
-        <v>9</v>
+        <v>52415</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>46</v>
       </c>
       <c r="L31" s="3">
-        <v>50010</v>
+        <v>52415</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="15"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="3">
+        <v>9</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="3">
+        <v>50010</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
-        <v>100</v>
-      </c>
+      <c r="B33" s="21"/>
       <c r="C33" s="10" t="s">
         <v>90</v>
       </c>
@@ -2478,7 +2484,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="11"/>
       <c r="I33" s="13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="14"/>
@@ -2488,44 +2494,40 @@
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H35" s="3" t="s">
         <v>6</v>
       </c>
@@ -2540,20 +2542,16 @@
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="3" t="s">
         <v>6</v>
@@ -2568,14 +2566,28 @@
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="B37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="5"/>
+      <c r="H37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="5"/>
       <c r="L37" s="3"/>
@@ -2656,14 +2668,29 @@
       <c r="L42" s="3"/>
       <c r="M42" s="6"/>
     </row>
+    <row r="43" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="6"/>
+    </row>
   </sheetData>
-  <sortState ref="E5:L41">
-    <sortCondition ref="I5:I41"/>
-    <sortCondition ref="J5:J41"/>
+  <sortState ref="E5:L42">
+    <sortCondition ref="I5:I42"/>
+    <sortCondition ref="J5:J42"/>
   </sortState>
   <mergeCells count="15">
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="A1:M1"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F558C7D-1875-4490-A52F-D15B529B2ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED615566-AF26-4AFC-BE44-8C9B67E9F211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$40</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="141">
   <si>
     <t>用途</t>
   </si>
@@ -521,10 +521,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>47-49</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.1.50</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -563,6 +559,38 @@
   </si>
   <si>
     <t>NAT Bitcomet TCP/UDP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS8</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Openwrt编译，学习机</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.47</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程回家</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.48</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1134,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,6 +1223,9 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1202,6 +1233,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1221,9 +1255,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1621,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1644,21 +1675,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1706,10 +1737,10 @@
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="4" t="s">
         <v>67</v>
       </c>
@@ -1733,8 +1764,8 @@
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="4" t="s">
         <v>66</v>
       </c>
@@ -1751,13 +1782,13 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1784,9 +1815,9 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="4" t="s">
         <v>54</v>
       </c>
@@ -1807,9 +1838,9 @@
     </row>
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="4" t="s">
         <v>69</v>
       </c>
@@ -1907,7 +1938,7 @@
     </row>
     <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>121</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1938,7 +1969,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
@@ -1967,7 +1998,7 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1996,7 +2027,7 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="10" t="s">
         <v>90</v>
       </c>
@@ -2015,13 +2046,13 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="26" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -2048,9 +2079,9 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="4" t="s">
         <v>75</v>
       </c>
@@ -2079,9 +2110,9 @@
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="4" t="s">
         <v>64</v>
       </c>
@@ -2098,9 +2129,9 @@
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="4" t="s">
         <v>72</v>
       </c>
@@ -2117,7 +2148,7 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="29"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="10" t="s">
         <v>90</v>
       </c>
@@ -2136,11 +2167,11 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2165,9 +2196,9 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="4" t="s">
         <v>101</v>
       </c>
@@ -2183,9 +2214,9 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="4" t="s">
         <v>86</v>
       </c>
@@ -2206,9 +2237,9 @@
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="12" t="s">
         <v>87</v>
       </c>
@@ -2227,7 +2258,7 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="29"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="17" t="s">
         <v>34</v>
       </c>
@@ -2244,12 +2275,12 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>127</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>128</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>49</v>
@@ -2276,14 +2307,14 @@
         <v>51415</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="4" t="s">
         <v>103</v>
       </c>
@@ -2305,18 +2336,18 @@
         <v>9091</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2324,7 +2355,7 @@
         <v>115</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="5"/>
@@ -2333,10 +2364,10 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>86</v>
@@ -2345,7 +2376,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="5"/>
@@ -2354,98 +2385,90 @@
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="15"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="19"/>
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>6</v>
+        <v>137</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="J30" s="3">
-        <v>9</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="3">
-        <v>50009</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>119</v>
-      </c>
+        <v>3899</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="3">
-        <v>52415</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="3">
-        <v>52415</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>133</v>
-      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="C32" s="7" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>77</v>
@@ -2457,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J32" s="3">
         <v>9</v>
@@ -2466,122 +2489,128 @@
         <v>46</v>
       </c>
       <c r="L32" s="3">
-        <v>50010</v>
+        <v>50009</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="15"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="3">
+        <v>52415</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="3">
+        <v>52415</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="15"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="3">
+        <v>9</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" s="3">
+        <v>50010</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
-      <c r="B35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="6"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="15"/>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H37" s="3" t="s">
         <v>6</v>
       </c>
@@ -2595,14 +2624,24 @@
     </row>
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="5"/>
+      <c r="H38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="5"/>
       <c r="L38" s="3"/>
@@ -2610,14 +2649,28 @@
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="B39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="5"/>
+      <c r="H39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="5"/>
       <c r="L39" s="3"/>
@@ -2683,18 +2736,48 @@
       <c r="L43" s="3"/>
       <c r="M43" s="6"/>
     </row>
+    <row r="44" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="6"/>
+    </row>
   </sheetData>
-  <sortState ref="E5:L42">
-    <sortCondition ref="I5:I42"/>
-    <sortCondition ref="J5:J42"/>
+  <sortState ref="E5:L44">
+    <sortCondition ref="I5:I44"/>
+    <sortCondition ref="J5:J44"/>
   </sortState>
   <mergeCells count="15">
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B32:B35"/>
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B15:B29"/>
+    <mergeCell ref="B15:B31"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="C3:C4"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED615566-AF26-4AFC-BE44-8C9B67E9F211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B1AC68-BF1B-4ECA-AE0A-10F4FF91EE7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="143">
   <si>
     <t>用途</t>
   </si>
@@ -590,7 +590,15 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>49</t>
+    <t>Windows Server 2019</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDS</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署服务</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1162,7 +1170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1263,6 +1271,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1654,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1663,7 +1674,7 @@
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
     <col min="6" max="6" width="31.375" customWidth="1"/>
     <col min="7" max="7" width="8.875" customWidth="1"/>
@@ -2438,23 +2449,27 @@
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="13" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="15"/>
+      <c r="E31" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B1AC68-BF1B-4ECA-AE0A-10F4FF91EE7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7557C0-AE8F-4780-A2FC-4341B2440CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="90" windowWidth="19770" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="网络功能信息" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$39</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="143">
   <si>
     <t>用途</t>
   </si>
@@ -337,10 +337,6 @@
   </si>
   <si>
     <t>DHCP获取</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.52</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -455,150 +451,154 @@
   </si>
   <si>
     <t>脚本</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>X520</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁路由</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Openwrt x64 Lean</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Supermicro SYS-E100-9APP </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学上网</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>长期</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>`公网动态</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NAT QNAP TS870PRO WOL TCP/UDP </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAT Pillanangel WOL TCP/UDP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAT Xiaoweiba WOL TCP/UDP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI AP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-20</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.50</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.49</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVE管理地址</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supermicro M11SDV-8C-LN4F
+(Proxmox VE 6.1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMV</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ens19 TCP/UDP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ens19 TCP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentOS8</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Openwrt编译，学习机</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.47</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程回家</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.48</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Server 2019</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDS</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署服务</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>IP地址规划：
 核心网络设备1-20；
 无线AP：21-30；
-各类服务器：31-50；
-PC客户端：51-70；
+各类服务器：31-60；
+PC客户端：61-70；
 其他设备：71-100；
 DHCP地址池：101-254;
 VPN地址池：192.168.2.2-254;</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>X520</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>旁路由</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Openwrt x64 Lean</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Supermicro SYS-E100-9APP </t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学上网</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>长期</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>`公网动态</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NAT QNAP TS870PRO WOL TCP/UDP </t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAT Pillanangel WOL TCP/UDP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAT Xiaoweiba WOL TCP/UDP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIFI AP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-20</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.50</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.49</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVE管理地址</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supermicro M11SDV-8C-LN4F
-(Proxmox VE 6.1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OMV</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>BMC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ens19 TCP/UDP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ens19 TCP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAT Bitcomet TCP/UDP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>CentOS8</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Openwrt编译，学习机</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.47</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程回家</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.48</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows Server 2019</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>WDS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署服务</t>
+    <t>192.168.1.61</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.62</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1234,6 +1234,9 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1271,9 +1274,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1663,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1686,21 +1686,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="A1" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1748,10 +1748,10 @@
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
         <v>67</v>
       </c>
@@ -1775,8 +1775,8 @@
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="4" t="s">
         <v>66</v>
       </c>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1826,9 +1826,9 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="4" t="s">
         <v>54</v>
       </c>
@@ -1844,14 +1844,14 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="4" t="s">
         <v>69</v>
       </c>
@@ -1900,28 +1900,28 @@
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="D9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
@@ -1932,7 +1932,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
@@ -1940,7 +1940,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="11"/>
       <c r="I10" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="14"/>
@@ -1949,8 +1949,8 @@
     </row>
     <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
-      <c r="B11" s="23" t="s">
-        <v>121</v>
+      <c r="B11" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>20</v>
@@ -1971,7 +1971,7 @@
         <v>6</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
-      <c r="B12" s="25"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="5"/>
@@ -2038,9 +2038,9 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
@@ -2048,7 +2048,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="11"/>
       <c r="I14" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="14"/>
@@ -2057,13 +2057,13 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -2079,20 +2079,20 @@
         <v>6</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="5"/>
       <c r="L15" s="3"/>
       <c r="M15" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="4" t="s">
         <v>75</v>
       </c>
@@ -2104,26 +2104,26 @@
         <v>6</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="3">
         <v>9</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L16" s="3">
         <v>50010</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="4" t="s">
         <v>64</v>
       </c>
@@ -2140,9 +2140,9 @@
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="28"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="4" t="s">
         <v>72</v>
       </c>
@@ -2159,9 +2159,9 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
-      <c r="B19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
@@ -2169,7 +2169,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="11"/>
       <c r="I19" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="14"/>
@@ -2178,27 +2178,27 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="5"/>
@@ -2207,16 +2207,16 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
       <c r="I21" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="5"/>
@@ -2225,11 +2225,11 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2237,22 +2237,22 @@
         <v>6</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="5"/>
       <c r="L22" s="3"/>
       <c r="M22" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -2260,7 +2260,7 @@
         <v>53</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="14"/>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="17" t="s">
         <v>34</v>
       </c>
@@ -2286,12 +2286,12 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>127</v>
+      <c r="B25" s="25"/>
+      <c r="C25" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>49</v>
@@ -2306,7 +2306,7 @@
         <v>6</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J25" s="3">
         <v>51415</v>
@@ -2318,24 +2318,24 @@
         <v>51415</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
       <c r="I26" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J26" s="3">
         <v>9091</v>
@@ -2347,26 +2347,26 @@
         <v>9091</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="5"/>
@@ -2375,19 +2375,19 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="5"/>
@@ -2396,23 +2396,23 @@
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
-      <c r="B29" s="24"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="20"/>
       <c r="D29" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="5"/>
@@ -2421,23 +2421,23 @@
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
-      <c r="B30" s="24"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="20"/>
       <c r="D30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J30" s="3">
         <v>3899</v>
@@ -2448,23 +2448,23 @@
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="34"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>141</v>
+        <v>137</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="5"/>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2495,7 +2495,7 @@
         <v>6</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="J32" s="3">
         <v>9</v>
@@ -2507,74 +2507,72 @@
         <v>50009</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="8"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="J33" s="3">
-        <v>52415</v>
+        <v>9</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>46</v>
       </c>
       <c r="L33" s="3">
-        <v>52415</v>
+        <v>50010</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" s="3">
-        <v>9</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L34" s="3">
-        <v>50010</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>120</v>
-      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
-      <c r="B35" s="22"/>
+      <c r="B35" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="C35" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="12"/>
@@ -2582,7 +2580,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="11"/>
       <c r="I35" s="13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="14"/>
@@ -2592,40 +2590,44 @@
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="G37" s="4"/>
       <c r="H37" s="3" t="s">
         <v>6</v>
       </c>
@@ -2640,16 +2642,20 @@
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="3" t="s">
         <v>6</v>
@@ -2664,28 +2670,14 @@
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="3"/>
       <c r="K39" s="5"/>
       <c r="L39" s="3"/>
@@ -2766,29 +2758,14 @@
       <c r="L44" s="3"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="6"/>
-    </row>
   </sheetData>
-  <sortState ref="E5:L44">
-    <sortCondition ref="I5:I44"/>
-    <sortCondition ref="J5:J44"/>
+  <sortState ref="E5:L43">
+    <sortCondition ref="I5:I43"/>
+    <sortCondition ref="J5:J43"/>
   </sortState>
   <mergeCells count="15">
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="A1:M1"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20356"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65844F1-3FCE-4CAD-86F8-89D4B51B43C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288DB13B-AE4B-4DC9-9C80-B7D26AB44550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="138">
   <si>
     <t>用途</t>
   </si>
@@ -546,10 +546,6 @@
   </si>
   <si>
     <t>网络接入</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为自带</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1172,27 +1168,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1208,9 +1192,6 @@
     <xf numFmtId="49" fontId="19" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1223,10 +1204,19 @@
     <xf numFmtId="0" fontId="19" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,16 +1225,22 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1643,7 +1639,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1652,7 +1648,7 @@
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="40.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39" style="3" customWidth="1"/>
     <col min="6" max="6" width="34" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="3" customWidth="1"/>
@@ -1724,106 +1720,104 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8" t="s">
+      <c r="F6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="4" t="s">
         <v>96</v>
       </c>
@@ -1836,27 +1830,27 @@
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="7"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1867,568 +1861,568 @@
       <c r="C8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="7"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="12"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>134</v>
+      <c r="B10" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="7"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="11"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="7"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="11"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="7"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="12"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="7"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="13">
         <v>9</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" s="13">
+        <v>50010</v>
+      </c>
+      <c r="M15" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="L15" s="18">
-        <v>50010</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="7" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="7"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="7" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="12"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="7"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="5"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="7" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="10" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="7"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="7" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="7"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="13" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="12"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="26"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="7" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="10" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="26"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="26"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="6" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <v>3899</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="26"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <v>50875</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="26"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="26"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="12"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="5">
         <v>9</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="5">
         <v>50009</v>
       </c>
       <c r="M30" s="4" t="s">
@@ -2437,35 +2431,35 @@
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="11"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="5">
         <v>9</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="5">
         <v>50010</v>
       </c>
       <c r="M31" s="4" t="s">
@@ -2474,43 +2468,43 @@
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="12"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="12"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
@@ -2520,23 +2514,23 @@
       <c r="C34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="7"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="5"/>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2547,21 +2541,21 @@
       <c r="C35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7" t="s">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="7"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="5"/>
       <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2572,134 +2566,134 @@
       <c r="C36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7" t="s">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="7"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="5"/>
       <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="28" t="s">
+      <c r="B37" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="7"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="5"/>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="7"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="5"/>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="7"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="5"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="7"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="5"/>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="7"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="5"/>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="7"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="5"/>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="7"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="5"/>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2714,13 +2708,6 @@
     <sortCondition ref="J5:J38"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D19:D22"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C19:C22"/>
@@ -2731,6 +2718,13 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D19:D22"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288DB13B-AE4B-4DC9-9C80-B7D26AB44550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF2C63-C7B0-463E-9985-92876DF9543E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$40</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="148">
   <si>
     <t>用途</t>
   </si>
@@ -72,14 +72,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Mikrotik RB960PGS HEX POE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>交换机</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Mikrotik CRS326-24G-2S+</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -92,22 +84,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Mikrotik wAP ac RBwAPG-5HacT2HnD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mikrotik cAP ac RBcAPGi-5acD2nD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>RouterOS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅玄关</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>HUAWEI MA5671</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -216,19 +192,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>客卧书房</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>客厅</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3322脚本DDNS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -406,10 +374,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>脚本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>X520</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -443,10 +407,6 @@
   </si>
   <si>
     <t>NAT Xiaoweiba WOL TCP/UDP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-20</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -578,6 +538,86 @@
   </si>
   <si>
     <t>备用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBNT UniFi AP-AC-Pro</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unifi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Living Room</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hall Way</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄关</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guest Bedroom</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBNT UniFi USG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主交换机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>POE交换机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBNT UniFi Switch 8 POE-150W</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unifi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP供电</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBNT UniFi UCK Plus</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络控制器、AC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置网络</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1219,35 +1259,35 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1636,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1661,21 +1701,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="A1" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1697,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>1</v>
@@ -1715,26 +1755,26 @@
         <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="26"/>
+      <c r="B3" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>6</v>
@@ -1742,21 +1782,21 @@
       <c r="I3" s="6"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1768,85 +1808,81 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>20</v>
+      <c r="C5" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="7"/>
       <c r="J6" s="5"/>
       <c r="K6" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
@@ -1856,28 +1892,28 @@
     <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
@@ -1886,48 +1922,60 @@
     </row>
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="8"/>
+      <c r="B9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="28" t="s">
-        <v>133</v>
+      <c r="B10" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
@@ -1936,56 +1984,48 @@
     </row>
     <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="24" t="s">
+        <v>123</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
@@ -1995,167 +2035,177 @@
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="8"/>
+      <c r="C13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>31</v>
+      <c r="B14" s="25"/>
+      <c r="C14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>77</v>
+      <c r="I14" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="13">
-        <v>9</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="L15" s="13">
-        <v>50010</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>135</v>
-      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="4"/>
+      <c r="E17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="13">
+        <v>9</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="13">
+        <v>50010</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="8"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>30</v>
-      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="5" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>81</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="5"/>
       <c r="K19" s="6"/>
       <c r="L19" s="5"/>
@@ -2163,37 +2213,46 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="4"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="E21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="H21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
@@ -2202,92 +2261,85 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="29"/>
-      <c r="E22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="8"/>
+      <c r="E22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>109</v>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="18"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="18"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>118</v>
+      </c>
       <c r="D25" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="6"/>
@@ -2296,291 +2348,283 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="26" t="s">
-        <v>26</v>
+      <c r="B26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>125</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="H26" s="5"/>
       <c r="I26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" s="5">
-        <v>3899</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J26" s="5"/>
       <c r="K26" s="6"/>
       <c r="L26" s="5"/>
       <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="E27" s="5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J27" s="5">
-        <v>50875</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J27" s="5"/>
       <c r="K27" s="6"/>
       <c r="L27" s="5"/>
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>119</v>
+      <c r="B28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="J28" s="5">
+        <v>3899</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="5"/>
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="8"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="5">
+        <v>50875</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>53</v>
+        <v>108</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J30" s="5">
-        <v>9</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="5">
-        <v>50009</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J31" s="5">
-        <v>9</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" s="5">
-        <v>50010</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="8"/>
+      <c r="B32" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="5">
+        <v>9</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="5">
+        <v>50009</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="8"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="5">
+        <v>9</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="5">
+        <v>50010</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="4"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="H36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
@@ -2589,18 +2633,24 @@
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="20" t="s">
+      <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="C37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="7"/>
+      <c r="H37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="J37" s="5"/>
       <c r="K37" s="6"/>
       <c r="L37" s="5"/>
@@ -2608,14 +2658,28 @@
     </row>
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="B38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="6"/>
+      <c r="H38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="6"/>
       <c r="L38" s="5"/>
@@ -2623,14 +2687,18 @@
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="21"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="6"/>
+      <c r="I39" s="7"/>
       <c r="J39" s="5"/>
       <c r="K39" s="6"/>
       <c r="L39" s="5"/>
@@ -2698,33 +2766,63 @@
     </row>
     <row r="44" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="4"/>
     </row>
     <row r="45" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="E5:L38">
-    <sortCondition ref="I5:I38"/>
-    <sortCondition ref="J5:J38"/>
+  <sortState ref="E5:L40">
+    <sortCondition ref="I5:I40"/>
+    <sortCondition ref="J5:J40"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C21:C24"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF2C63-C7B0-463E-9985-92876DF9543E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684676AC-9AED-401C-9A6B-E40F3A26F871}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1259,35 +1259,35 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1678,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1701,21 +1701,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1760,13 +1760,13 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>55</v>
       </c>
@@ -1789,9 +1789,9 @@
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="5" t="s">
         <v>54</v>
       </c>
@@ -1808,13 +1808,13 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1841,9 +1841,9 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>120</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="28" t="s">
         <v>123</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2034,7 +2034,7 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="25"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="4" t="s">
         <v>131</v>
       </c>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="25"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="4" t="s">
         <v>131</v>
       </c>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="8" t="s">
         <v>75</v>
       </c>
@@ -2111,13 +2111,13 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -2144,9 +2144,9 @@
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="13" t="s">
         <v>61</v>
       </c>
@@ -2175,9 +2175,9 @@
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="5" t="s">
         <v>52</v>
       </c>
@@ -2194,9 +2194,9 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="5" t="s">
         <v>58</v>
       </c>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="25"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="8" t="s">
         <v>75</v>
       </c>
@@ -2232,11 +2232,11 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2261,9 +2261,9 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="5" t="s">
         <v>83</v>
       </c>
@@ -2279,9 +2279,9 @@
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="5" t="s">
         <v>71</v>
       </c>
@@ -2300,9 +2300,9 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="31"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="9" t="s">
         <v>72</v>
       </c>
@@ -2321,10 +2321,10 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="22" t="s">
         <v>118</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2348,8 +2348,8 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="5" t="s">
         <v>101</v>
       </c>
@@ -2369,8 +2369,8 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="5" t="s">
         <v>102</v>
       </c>
@@ -2394,9 +2394,9 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="27" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -2421,9 +2421,9 @@
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="5" t="s">
         <v>114</v>
       </c>
@@ -2446,8 +2446,8 @@
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="5" t="s">
         <v>108</v>
       </c>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="30"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="8" t="s">
         <v>75</v>
       </c>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2529,7 +2529,7 @@
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="25"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="4" t="s">
         <v>47</v>
       </c>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="26"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8" t="s">
         <v>75</v>
       </c>
@@ -2806,13 +2806,6 @@
     <sortCondition ref="J5:J40"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2823,6 +2816,13 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684676AC-9AED-401C-9A6B-E40F3A26F871}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA8101B-94E9-4816-B096-6D9386C43036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Freenas</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>QTS</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -224,15 +220,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SAMBA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>PLEX</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>满足PC端、HTPC、移动端看片</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -354,14 +342,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>第二网口ixl1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一网口ixl0-Rsync模块服务</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>PS Audio</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -430,10 +410,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CentOS8</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>编译</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -451,10 +427,6 @@
   </si>
   <si>
     <t>RDP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows Server 2019</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -618,6 +590,36 @@
   </si>
   <si>
     <t>配置网络</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Server
+2019 DataCenter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Server
+2019 Standard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步、SMB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>待启用</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu1910</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端、HTPC、移动端看片</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1192,7 +1194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1259,35 +1261,38 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1678,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1701,21 +1706,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="A1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1755,26 +1760,26 @@
         <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>6</v>
@@ -1782,21 +1787,21 @@
       <c r="I3" s="6"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1808,52 +1813,52 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>132</v>
+      <c r="C5" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="7"/>
       <c r="J6" s="5"/>
       <c r="K6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="4"/>
@@ -1861,7 +1866,7 @@
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -1870,19 +1875,19 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="6"/>
@@ -1892,28 +1897,28 @@
     <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
@@ -1923,28 +1928,28 @@
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
@@ -1954,28 +1959,28 @@
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
@@ -1986,7 +1991,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1994,7 +1999,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="11"/>
@@ -2003,29 +2008,29 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="28" t="s">
-        <v>123</v>
+      <c r="B12" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
@@ -2034,27 +2039,27 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
@@ -2063,27 +2068,27 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
@@ -2092,9 +2097,9 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -2102,7 +2107,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="11"/>
@@ -2111,78 +2116,78 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>25</v>
+      <c r="D16" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>
       <c r="L16" s="5"/>
       <c r="M16" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J17" s="13">
         <v>9</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L17" s="13">
         <v>50010</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2194,14 +2199,14 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="29"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2213,9 +2218,9 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -2223,7 +2228,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="11"/>
@@ -2232,27 +2237,27 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>24</v>
+      <c r="B21" s="25"/>
+      <c r="C21" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>141</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
@@ -2261,29 +2266,29 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="6"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -2291,7 +2296,7 @@
         <v>6</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
@@ -2300,19 +2305,19 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="29"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="11"/>
@@ -2321,25 +2326,25 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>118</v>
+      <c r="B25" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="6"/>
@@ -2348,19 +2353,19 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="6"/>
@@ -2369,23 +2374,23 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="5" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="6"/>
@@ -2394,23 +2399,23 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="26" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J28" s="5">
         <v>3899</v>
@@ -2421,21 +2426,21 @@
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J29" s="5">
         <v>50875</v>
@@ -2444,25 +2449,25 @@
       <c r="L29" s="5"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="5" t="s">
-        <v>108</v>
+      <c r="B30" s="30"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="32" t="s">
+        <v>142</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="6"/>
@@ -2471,9 +2476,9 @@
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -2481,7 +2486,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="11"/>
@@ -2490,7 +2495,7 @@
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2500,10 +2505,10 @@
         <v>20</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>19</v>
@@ -2512,35 +2517,35 @@
         <v>6</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J32" s="5">
         <v>9</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L32" s="5">
         <v>50009</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="24"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>19</v>
@@ -2549,26 +2554,26 @@
         <v>6</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J33" s="5">
         <v>9</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" s="5">
         <v>50010</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="25"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -2576,7 +2581,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="11"/>
@@ -2586,10 +2591,10 @@
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -2597,7 +2602,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="11"/>
@@ -2607,10 +2612,10 @@
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>20</v>
@@ -2618,13 +2623,13 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="6"/>
@@ -2634,13 +2639,13 @@
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -2649,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="6"/>
@@ -2659,26 +2664,26 @@
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D38" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="6"/>
@@ -2688,10 +2693,10 @@
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="19" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="5"/>
@@ -2806,6 +2811,13 @@
     <sortCondition ref="J5:J40"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2816,13 +2828,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20358"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA8101B-94E9-4816-B096-6D9386C43036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01E6725-11FA-429D-9064-B4015757D18F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$41</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="150">
   <si>
     <t>用途</t>
   </si>
@@ -505,10 +505,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>45-46、52-60</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>备用</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -620,6 +616,18 @@
   </si>
   <si>
     <t>PC端、HTPC、移动端看片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu2004</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.45</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>46、52-60</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1261,38 +1269,38 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1681,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1706,21 +1714,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1765,10 +1773,10 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="27"/>
@@ -1813,14 +1821,14 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>130</v>
+      <c r="C5" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>114</v>
@@ -1866,7 +1874,7 @@
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -1928,19 +1936,19 @@
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>37</v>
@@ -1949,7 +1957,7 @@
         <v>88</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
@@ -1959,19 +1967,19 @@
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>37</v>
@@ -1980,7 +1988,7 @@
         <v>88</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
@@ -1999,7 +2007,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="11"/>
@@ -2008,20 +2016,20 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="29" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>42</v>
@@ -2041,19 +2049,19 @@
       <c r="A13" s="4"/>
       <c r="B13" s="25"/>
       <c r="C13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>6</v>
@@ -2070,16 +2078,16 @@
       <c r="A14" s="4"/>
       <c r="B14" s="25"/>
       <c r="C14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>67</v>
@@ -2116,17 +2124,17 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>49</v>
@@ -2151,7 +2159,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="29"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
@@ -2182,12 +2190,12 @@
       <c r="A18" s="4"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="29"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2201,7 +2209,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="31"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
@@ -2238,14 +2246,14 @@
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="25"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>141</v>
+      <c r="D21" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>57</v>
@@ -2268,7 +2276,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="29"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2279,14 +2287,14 @@
       <c r="K22" s="6"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
-      <c r="D23" s="29"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
@@ -2307,7 +2315,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
-      <c r="D24" s="31"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="9" t="s">
         <v>69</v>
       </c>
@@ -2326,10 +2334,10 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="23" t="s">
         <v>111</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2353,8 +2361,8 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="5" t="s">
         <v>96</v>
       </c>
@@ -2374,10 +2382,10 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>97</v>
@@ -2399,41 +2407,41 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="27" t="s">
-        <v>20</v>
+      <c r="B28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="5">
-        <v>3899</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J28" s="5"/>
       <c r="K28" s="6"/>
       <c r="L28" s="5"/>
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="E29" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
@@ -2443,106 +2451,94 @@
         <v>100</v>
       </c>
       <c r="J29" s="5">
-        <v>50875</v>
+        <v>3899</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="5"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>102</v>
+      <c r="B30" s="28"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="J30" s="5">
+        <v>50875</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="5"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="8"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" s="5">
-        <v>9</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="5">
-        <v>50009</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="25"/>
+      <c r="B33" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>60</v>
@@ -2554,7 +2550,7 @@
         <v>6</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J33" s="5">
         <v>9</v>
@@ -2563,36 +2559,52 @@
         <v>38</v>
       </c>
       <c r="L33" s="5">
-        <v>50010</v>
+        <v>50009</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="8"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" s="5">
+        <v>9</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="5">
+        <v>50010</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="B35" s="26"/>
       <c r="C35" s="8" t="s">
         <v>72</v>
       </c>
@@ -2602,7 +2614,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="11"/>
@@ -2612,44 +2624,40 @@
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H37" s="5" t="s">
         <v>6</v>
       </c>
@@ -2664,20 +2672,16 @@
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
         <v>6</v>
@@ -2692,18 +2696,28 @@
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="B39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="7"/>
+      <c r="H39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="6"/>
       <c r="L39" s="5"/>
@@ -2711,14 +2725,18 @@
     </row>
     <row r="40" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
+      <c r="B40" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="21"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="6"/>
+      <c r="I40" s="7"/>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
@@ -2801,23 +2819,31 @@
     </row>
     <row r="46" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
     </row>
+    <row r="48" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+    </row>
   </sheetData>
-  <sortState ref="E5:L40">
-    <sortCondition ref="I5:I40"/>
-    <sortCondition ref="J5:J40"/>
+  <sortState ref="E5:L41">
+    <sortCondition ref="I5:I41"/>
+    <sortCondition ref="J5:J41"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2828,6 +2854,13 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20358"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20363"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01E6725-11FA-429D-9064-B4015757D18F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B598C7-710F-4FA6-AF1F-96444937283D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$40</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="148">
   <si>
     <t>用途</t>
   </si>
@@ -415,10 +415,6 @@
   </si>
   <si>
     <t>Openwrt编译，学习机</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.47</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -611,10 +607,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Ubuntu1910</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>PC端、HTPC、移动端看片</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -627,7 +619,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>46、52-60</t>
+    <t>46、47、52-60</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1272,35 +1264,35 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1689,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1714,21 +1706,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="A1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1773,13 +1765,13 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
@@ -1802,9 +1794,9 @@
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>51</v>
       </c>
@@ -1821,20 +1813,20 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>124</v>
+      <c r="C5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>37</v>
@@ -1854,12 +1846,12 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1874,7 +1866,7 @@
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -1936,19 +1928,19 @@
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>37</v>
@@ -1957,7 +1949,7 @@
         <v>88</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
@@ -1967,19 +1959,19 @@
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>37</v>
@@ -1988,7 +1980,7 @@
         <v>88</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
@@ -2007,7 +1999,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="11"/>
@@ -2016,20 +2008,20 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="29" t="s">
-        <v>116</v>
+      <c r="B12" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>42</v>
@@ -2047,21 +2039,21 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>6</v>
@@ -2076,18 +2068,18 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="25"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>67</v>
@@ -2105,7 +2097,7 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="8" t="s">
         <v>72</v>
       </c>
@@ -2124,17 +2116,17 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="28" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>49</v>
@@ -2157,9 +2149,9 @@
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
@@ -2177,25 +2169,25 @@
         <v>9</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L17" s="13">
         <v>50010</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2207,9 +2199,9 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
@@ -2226,7 +2218,7 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="25"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="8" t="s">
         <v>72</v>
       </c>
@@ -2245,15 +2237,15 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>140</v>
+      <c r="D21" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>57</v>
@@ -2274,9 +2266,9 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2287,14 +2279,14 @@
       <c r="K22" s="6"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
@@ -2313,9 +2305,9 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="9" t="s">
         <v>69</v>
       </c>
@@ -2334,11 +2326,11 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>110</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>95</v>
@@ -2361,8 +2353,8 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="5" t="s">
         <v>96</v>
       </c>
@@ -2382,8 +2374,8 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="5" t="s">
         <v>145</v>
       </c>
@@ -2398,7 +2390,7 @@
         <v>88</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="6"/>
@@ -2407,138 +2399,150 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="5" t="s">
-        <v>147</v>
+      <c r="B28" s="31"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="J28" s="5">
+        <v>3899</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="5"/>
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J29" s="5">
-        <v>3899</v>
+        <v>50875</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="5"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="5" t="s">
-        <v>107</v>
+      <c r="B30" s="31"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="5">
-        <v>50875</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J30" s="5"/>
       <c r="K30" s="6"/>
       <c r="L30" s="5"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="18"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="8"/>
+      <c r="B32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" s="5">
+        <v>9</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="5">
+        <v>50009</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="B33" s="26"/>
       <c r="C33" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>60</v>
@@ -2559,52 +2563,36 @@
         <v>38</v>
       </c>
       <c r="L33" s="5">
-        <v>50009</v>
+        <v>50010</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J34" s="5">
-        <v>9</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L34" s="5">
-        <v>50010</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="26"/>
+      <c r="B35" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C35" s="8" t="s">
         <v>72</v>
       </c>
@@ -2614,7 +2602,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="11"/>
@@ -2624,40 +2612,44 @@
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
         <v>6</v>
       </c>
@@ -2672,16 +2664,20 @@
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
         <v>6</v>
@@ -2696,28 +2692,18 @@
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="B39" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="7"/>
       <c r="J39" s="5"/>
       <c r="K39" s="6"/>
       <c r="L39" s="5"/>
@@ -2725,18 +2711,14 @@
     </row>
     <row r="40" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="21"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="7"/>
+      <c r="I40" s="6"/>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
@@ -2819,31 +2801,23 @@
     </row>
     <row r="46" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
-    </row>
   </sheetData>
-  <sortState ref="E5:L41">
-    <sortCondition ref="I5:I41"/>
-    <sortCondition ref="J5:J41"/>
+  <sortState ref="E5:L40">
+    <sortCondition ref="I5:I40"/>
+    <sortCondition ref="J5:J40"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2854,13 +2828,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20364"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B598C7-710F-4FA6-AF1F-96444937283D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70D706D-740B-4217-A9E7-7281BC2956C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$41</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="153">
   <si>
     <t>用途</t>
   </si>
@@ -619,7 +619,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>46、47、52-60</t>
+    <t>CentOS8.2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDAP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录服务</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.46</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>47、52-60</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1194,7 +1214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1264,35 +1284,38 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1681,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1706,21 +1729,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1765,10 +1788,10 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="28"/>
@@ -1813,10 +1836,10 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="30" t="s">
         <v>128</v>
       </c>
       <c r="D5" s="28" t="s">
@@ -2008,7 +2031,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="30" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2116,10 +2139,10 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -2151,7 +2174,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="30"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
@@ -2182,7 +2205,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="30"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
@@ -2201,7 +2224,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="32"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
@@ -2238,10 +2261,10 @@
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="24" t="s">
         <v>139</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2268,7 +2291,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2286,7 +2309,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
-      <c r="D23" s="30"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
@@ -2307,7 +2330,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="32"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="9" t="s">
         <v>69</v>
       </c>
@@ -2326,10 +2349,10 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="24" t="s">
         <v>110</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2353,8 +2376,8 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="5" t="s">
         <v>96</v>
       </c>
@@ -2374,8 +2397,8 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="30"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="5" t="s">
         <v>145</v>
       </c>
@@ -2399,41 +2422,41 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="28" t="s">
-        <v>20</v>
+      <c r="B28" s="29"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" s="5">
-        <v>3899</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="J28" s="5"/>
       <c r="K28" s="6"/>
       <c r="L28" s="5"/>
       <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="E29" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
@@ -2443,106 +2466,94 @@
         <v>99</v>
       </c>
       <c r="J29" s="5">
-        <v>50875</v>
+        <v>3899</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="5"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>101</v>
+      <c r="B30" s="29"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="J30" s="5">
+        <v>50875</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="5"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="8"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J32" s="5">
-        <v>9</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="5">
-        <v>50009</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="26"/>
+      <c r="B33" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>60</v>
@@ -2554,7 +2565,7 @@
         <v>6</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J33" s="5">
         <v>9</v>
@@ -2563,36 +2574,52 @@
         <v>38</v>
       </c>
       <c r="L33" s="5">
-        <v>50010</v>
+        <v>50009</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="8"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" s="5">
+        <v>9</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="5">
+        <v>50010</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="B35" s="27"/>
       <c r="C35" s="8" t="s">
         <v>72</v>
       </c>
@@ -2602,7 +2629,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="11"/>
@@ -2612,44 +2639,40 @@
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H37" s="5" t="s">
         <v>6</v>
       </c>
@@ -2664,20 +2687,16 @@
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
         <v>6</v>
@@ -2692,18 +2711,28 @@
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
-      <c r="B39" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="B39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="7"/>
+      <c r="H39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="6"/>
       <c r="L39" s="5"/>
@@ -2711,14 +2740,18 @@
     </row>
     <row r="40" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
+      <c r="B40" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="21"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="6"/>
+      <c r="I40" s="7"/>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
@@ -2801,23 +2834,31 @@
     </row>
     <row r="46" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="4"/>
     </row>
     <row r="47" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
     </row>
+    <row r="48" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+    </row>
   </sheetData>
-  <sortState ref="E5:L40">
-    <sortCondition ref="I5:I40"/>
-    <sortCondition ref="J5:J40"/>
+  <sortState ref="E5:L41">
+    <sortCondition ref="I5:I41"/>
+    <sortCondition ref="J5:J41"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2828,6 +2869,13 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70D706D-740B-4217-A9E7-7281BC2956C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA2013B-BB3F-4470-8694-38D01140F10D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,10 +623,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>LDAP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>目录服务</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -640,6 +636,10 @@
   </si>
   <si>
     <t>47、52-60</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeIPA</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1287,35 +1287,35 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1729,21 +1729,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1788,13 +1788,13 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
@@ -1817,9 +1817,9 @@
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>51</v>
       </c>
@@ -1836,13 +1836,13 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>123</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1869,9 +1869,9 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>112</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2062,7 +2062,7 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="26"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="4" t="s">
         <v>122</v>
       </c>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="4" t="s">
         <v>122</v>
       </c>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="27"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="8" t="s">
         <v>72</v>
       </c>
@@ -2139,13 +2139,13 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -2172,9 +2172,9 @@
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
@@ -2203,9 +2203,9 @@
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
@@ -2222,9 +2222,9 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="8" t="s">
         <v>72</v>
       </c>
@@ -2260,11 +2260,11 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="30" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="30" t="s">
         <v>139</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2289,9 +2289,9 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2307,9 +2307,9 @@
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
@@ -2328,9 +2328,9 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="31"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="9" t="s">
         <v>69</v>
       </c>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="30" t="s">
         <v>110</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2376,8 +2376,8 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="5" t="s">
         <v>96</v>
       </c>
@@ -2397,8 +2397,8 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="5" t="s">
         <v>145</v>
       </c>
@@ -2422,23 +2422,23 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="25"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="23" t="s">
         <v>147</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
@@ -2447,9 +2447,9 @@
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="28" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -2474,9 +2474,9 @@
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="5" t="s">
         <v>106</v>
       </c>
@@ -2499,8 +2499,8 @@
     </row>
     <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="22" t="s">
         <v>140</v>
       </c>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="29"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="8" t="s">
         <v>72</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="11"/>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -2582,7 +2582,7 @@
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="27"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="8" t="s">
         <v>72</v>
       </c>
@@ -2859,6 +2859,13 @@
     <sortCondition ref="J5:J41"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2869,13 +2876,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20366"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA2013B-BB3F-4470-8694-38D01140F10D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD4ABC-F403-4F24-8364-914DA5BAEFD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$43</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="161">
   <si>
     <t>用途</t>
   </si>
@@ -635,11 +635,43 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>47、52-60</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>FreeIPA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeBSD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.47</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker:Debian 10 OpenLDAP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDAP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户目录</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.52</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>53-60</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1214,7 +1246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1287,34 +1319,40 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1704,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1729,21 +1767,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1788,10 +1826,10 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="29"/>
@@ -1836,10 +1874,10 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="31" t="s">
         <v>128</v>
       </c>
       <c r="D5" s="29" t="s">
@@ -2031,7 +2069,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="31" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2139,10 +2177,10 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="29" t="s">
@@ -2174,7 +2212,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="31"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
@@ -2205,7 +2243,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="31"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
@@ -2224,7 +2262,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="33"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
@@ -2261,10 +2299,10 @@
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="25" t="s">
         <v>139</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2291,7 +2329,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2309,7 +2347,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="31"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
@@ -2330,7 +2368,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
-      <c r="D24" s="33"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="9" t="s">
         <v>69</v>
       </c>
@@ -2349,10 +2387,10 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="25" t="s">
         <v>110</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2376,8 +2414,8 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="5" t="s">
         <v>96</v>
       </c>
@@ -2397,8 +2435,8 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="5" t="s">
         <v>145</v>
       </c>
@@ -2422,13 +2460,13 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="23" t="s">
         <v>147</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>148</v>
@@ -2447,41 +2485,39 @@
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="29" t="s">
-        <v>20</v>
+      <c r="B29" s="30"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>107</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J29" s="5">
-        <v>3899</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="5"/>
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="E30" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
@@ -2491,242 +2527,238 @@
         <v>99</v>
       </c>
       <c r="J30" s="5">
-        <v>50875</v>
+        <v>3899</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="5"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>101</v>
+      <c r="B31" s="30"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="J31" s="5">
+        <v>50875</v>
+      </c>
       <c r="K31" s="6"/>
       <c r="L31" s="5"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="30"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>44</v>
+      <c r="B33" s="30"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J33" s="5">
-        <v>9</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L33" s="5">
-        <v>50009</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J34" s="5">
-        <v>9</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L34" s="5">
-        <v>50010</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="8"/>
+      <c r="B35" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" s="5">
+        <v>9</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="5">
+        <v>50009</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="8"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="5">
+        <v>9</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="5">
+        <v>50010</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="4"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H39" s="5" t="s">
         <v>6</v>
       </c>
@@ -2740,18 +2772,24 @@
     </row>
     <row r="40" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="21"/>
+      <c r="B40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="7"/>
+      <c r="H40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
@@ -2759,14 +2797,28 @@
     </row>
     <row r="41" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="B41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="6"/>
+      <c r="H41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
@@ -2774,14 +2826,18 @@
     </row>
     <row r="42" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
+      <c r="B42" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="21"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
+      <c r="I42" s="7"/>
       <c r="J42" s="5"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
@@ -2849,23 +2905,46 @@
     </row>
     <row r="47" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="E5:L41">
-    <sortCondition ref="I5:I41"/>
-    <sortCondition ref="J5:J41"/>
+  <sortState ref="E5:L43">
+    <sortCondition ref="I5:I43"/>
+    <sortCondition ref="J5:J43"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2876,6 +2955,13 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C25:C33"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLRWORK\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD4ABC-F403-4F24-8364-914DA5BAEFD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE698382-47C1-42C1-9DF1-1348F2CD6196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
   <si>
     <t>用途</t>
   </si>
@@ -619,11 +619,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CentOS8.2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录服务</t>
+    <t>FreeBSD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习测试</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -631,26 +631,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.1.46</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreeIPA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreeBSD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习测试</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.1.47</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -671,7 +651,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>53-60</t>
+    <t>46、53-60</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1246,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,38 +1299,35 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1742,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1767,21 +1744,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1826,10 +1803,10 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="29"/>
@@ -1874,10 +1851,10 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="26" t="s">
         <v>128</v>
       </c>
       <c r="D5" s="29" t="s">
@@ -2069,7 +2046,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2177,10 +2154,10 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="29" t="s">
@@ -2212,7 +2189,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
@@ -2243,7 +2220,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
@@ -2299,10 +2276,10 @@
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="33" t="s">
         <v>139</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2329,7 +2306,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="26"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2347,7 +2324,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="26"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
@@ -2390,7 +2367,7 @@
       <c r="B25" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="33" t="s">
         <v>110</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2415,7 +2392,7 @@
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="30"/>
-      <c r="C26" s="26"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="5" t="s">
         <v>96</v>
       </c>
@@ -2436,7 +2413,7 @@
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="26"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="5" t="s">
         <v>145</v>
       </c>
@@ -2461,16 +2438,14 @@
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="26"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="23" t="s">
         <v>147</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="5" t="s">
         <v>148</v>
       </c>
+      <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
         <v>149</v>
@@ -2486,22 +2461,26 @@
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="24" t="s">
-        <v>152</v>
+      <c r="C29" s="31"/>
+      <c r="D29" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="J29" s="5">
+        <v>3899</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="5"/>
       <c r="M29" s="18"/>
@@ -2509,15 +2488,13 @@
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
@@ -2527,33 +2504,33 @@
         <v>99</v>
       </c>
       <c r="J30" s="5">
-        <v>3899</v>
+        <v>50875</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="5"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="30"/>
       <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="5" t="s">
-        <v>106</v>
+      <c r="D31" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J31" s="5">
-        <v>50875</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J31" s="5"/>
       <c r="K31" s="6"/>
       <c r="L31" s="5"/>
       <c r="M31" s="18"/>
@@ -2561,85 +2538,97 @@
     <row r="32" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="30"/>
-      <c r="C32" s="27"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="6"/>
       <c r="L32" s="5"/>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="30"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="18"/>
+      <c r="C33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="8"/>
+      <c r="B34" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="5">
+        <v>9</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="5">
+        <v>50009</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="31" t="s">
-        <v>17</v>
-      </c>
+      <c r="B35" s="27"/>
       <c r="C35" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>60</v>
@@ -2651,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J35" s="5">
         <v>9</v>
@@ -2660,52 +2649,36 @@
         <v>38</v>
       </c>
       <c r="L35" s="5">
-        <v>50009</v>
+        <v>50010</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J36" s="5">
-        <v>9</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="5">
-        <v>50010</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="28"/>
+      <c r="B37" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C37" s="8" t="s">
         <v>72</v>
       </c>
@@ -2715,7 +2688,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="10" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="11"/>
@@ -2725,40 +2698,44 @@
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
         <v>6</v>
       </c>
@@ -2773,16 +2750,20 @@
     <row r="40" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
         <v>6</v>
@@ -2797,28 +2778,18 @@
     </row>
     <row r="41" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="B41" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="7"/>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
@@ -2826,18 +2797,14 @@
     </row>
     <row r="42" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="21"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="7"/>
+      <c r="I42" s="6"/>
       <c r="J42" s="5"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
@@ -2920,31 +2887,23 @@
     </row>
     <row r="48" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4"/>
-    </row>
   </sheetData>
-  <sortState ref="E5:L43">
-    <sortCondition ref="I5:I43"/>
-    <sortCondition ref="J5:J43"/>
+  <sortState ref="E5:L42">
+    <sortCondition ref="I5:I42"/>
+    <sortCondition ref="J5:J42"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C25:C32"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2955,13 +2914,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C25:C33"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AD4ABC-F403-4F24-8364-914DA5BAEFD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C18109-D1FD-4957-88AF-ABC49DD9EC7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$41</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="152">
   <si>
     <t>用途</t>
   </si>
@@ -619,11 +619,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>CentOS8.2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录服务</t>
+    <t>FreeBSD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习测试</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -631,47 +631,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.1.46</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreeIPA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreeBSD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习测试</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.1.47</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Docker:Debian 10 OpenLDAP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDAP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户目录</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.52</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>53-60</t>
+    <t>46、52-60</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1246,7 +1210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,41 +1283,35 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1742,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1767,21 +1725,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1826,10 +1784,10 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="29"/>
@@ -1874,10 +1832,10 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="26" t="s">
         <v>128</v>
       </c>
       <c r="D5" s="29" t="s">
@@ -2069,7 +2027,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2177,10 +2135,10 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="29" t="s">
@@ -2212,7 +2170,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
@@ -2243,7 +2201,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
@@ -2299,10 +2257,10 @@
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="33" t="s">
         <v>139</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2329,7 +2287,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="26"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2347,7 +2305,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="26"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
@@ -2390,7 +2348,7 @@
       <c r="B25" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="33" t="s">
         <v>110</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2415,7 +2373,7 @@
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="30"/>
-      <c r="C26" s="26"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="5" t="s">
         <v>96</v>
       </c>
@@ -2436,7 +2394,7 @@
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="26"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="5" t="s">
         <v>145</v>
       </c>
@@ -2461,16 +2419,14 @@
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="26"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="23" t="s">
         <v>147</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="5" t="s">
         <v>148</v>
       </c>
+      <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
         <v>149</v>
@@ -2486,22 +2442,26 @@
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="24" t="s">
-        <v>152</v>
+      <c r="C29" s="31"/>
+      <c r="D29" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="J29" s="5">
+        <v>3899</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="5"/>
       <c r="M29" s="18"/>
@@ -2509,15 +2469,13 @@
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="29" t="s">
-        <v>20</v>
-      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
@@ -2527,238 +2485,242 @@
         <v>99</v>
       </c>
       <c r="J30" s="5">
-        <v>3899</v>
+        <v>50875</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="5"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="30"/>
       <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="5" t="s">
-        <v>106</v>
+      <c r="D31" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J31" s="5">
-        <v>50875</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J31" s="5"/>
       <c r="K31" s="6"/>
       <c r="L31" s="5"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="30"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="18"/>
-    </row>
-    <row r="33" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>157</v>
+      <c r="B33" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="H33" s="5" t="s">
-        <v>154</v>
+        <v>6</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="J33" s="5">
+        <v>9</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="5">
+        <v>50009</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="8"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" s="5">
+        <v>9</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="5">
+        <v>50010</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J35" s="5">
-        <v>9</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L35" s="5">
-        <v>50009</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="J36" s="5">
-        <v>9</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="5">
-        <v>50010</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="B36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="8"/>
+      <c r="B37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
         <v>6</v>
       </c>
@@ -2772,24 +2734,18 @@
     </row>
     <row r="40" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B40" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="21"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="7"/>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
@@ -2797,28 +2753,14 @@
     </row>
     <row r="41" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
@@ -2826,18 +2768,14 @@
     </row>
     <row r="42" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="21"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="7"/>
+      <c r="I42" s="6"/>
       <c r="J42" s="5"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
@@ -2905,46 +2843,23 @@
     </row>
     <row r="47" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="E5:L43">
-    <sortCondition ref="I5:I43"/>
-    <sortCondition ref="J5:J43"/>
+  <sortState ref="E5:L41">
+    <sortCondition ref="I5:I41"/>
+    <sortCondition ref="J5:J41"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C25:C31"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2955,13 +2870,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C25:C33"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLRWORK\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C18109-D1FD-4957-88AF-ABC49DD9EC7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F500AB3-80F5-4613-87B2-7912AF65244F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
   <si>
     <t>用途</t>
   </si>
@@ -411,10 +411,6 @@
   </si>
   <si>
     <t>编译</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Openwrt编译，学习机</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -635,7 +631,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>46、52-60</t>
+    <t>Ubuntu2004alpha</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEDE/Openwrt编译</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版Openwrt编译</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.46</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>52-60</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1283,35 +1299,35 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1700,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1725,21 +1741,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="A1" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1784,13 +1800,13 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
@@ -1813,9 +1829,9 @@
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="5" t="s">
         <v>51</v>
       </c>
@@ -1832,20 +1848,20 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>123</v>
+      <c r="C5" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>37</v>
@@ -1865,12 +1881,12 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1885,7 +1901,7 @@
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -1947,19 +1963,19 @@
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>37</v>
@@ -1968,7 +1984,7 @@
         <v>88</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
@@ -1978,19 +1994,19 @@
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>37</v>
@@ -1999,7 +2015,7 @@
         <v>88</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
@@ -2018,7 +2034,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="11"/>
@@ -2027,20 +2043,20 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="26" t="s">
-        <v>115</v>
+      <c r="B12" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>42</v>
@@ -2058,21 +2074,21 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>6</v>
@@ -2087,18 +2103,18 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="27"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>67</v>
@@ -2116,7 +2132,7 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="28"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="8" t="s">
         <v>72</v>
       </c>
@@ -2135,17 +2151,17 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>49</v>
@@ -2168,9 +2184,9 @@
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
@@ -2188,25 +2204,25 @@
         <v>9</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L17" s="13">
         <v>50010</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2218,9 +2234,9 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="32"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
@@ -2237,7 +2253,7 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>72</v>
       </c>
@@ -2256,15 +2272,15 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>139</v>
+      <c r="D21" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>57</v>
@@ -2285,9 +2301,9 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2298,14 +2314,14 @@
       <c r="K22" s="6"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
@@ -2324,9 +2340,9 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="32"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="9" t="s">
         <v>69</v>
       </c>
@@ -2345,11 +2361,11 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>109</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>110</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>95</v>
@@ -2372,8 +2388,8 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="5" t="s">
         <v>96</v>
       </c>
@@ -2393,23 +2409,23 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>97</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="6"/>
@@ -2418,21 +2434,23 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="23" t="s">
-        <v>147</v>
+      <c r="B28" s="26"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="5"/>
+        <v>151</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
@@ -2441,150 +2459,136 @@
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="29" t="s">
-        <v>20</v>
+      <c r="B29" s="26"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>107</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J29" s="5">
-        <v>3899</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J29" s="5"/>
       <c r="K29" s="6"/>
       <c r="L29" s="5"/>
       <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="24" t="s">
+        <v>20</v>
+      </c>
       <c r="E30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J30" s="5">
-        <v>50875</v>
+        <v>3899</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="5"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>101</v>
+      <c r="B31" s="26"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="J31" s="5">
+        <v>50875</v>
+      </c>
       <c r="K31" s="6"/>
       <c r="L31" s="5"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="8"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J33" s="5">
-        <v>9</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L33" s="5">
-        <v>50009</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="C34" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>60</v>
@@ -2596,7 +2600,7 @@
         <v>6</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J34" s="5">
         <v>9</v>
@@ -2605,36 +2609,52 @@
         <v>38</v>
       </c>
       <c r="L34" s="5">
-        <v>50010</v>
+        <v>50009</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="28"/>
-      <c r="C35" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="8"/>
+      <c r="C35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" s="5">
+        <v>9</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="5">
+        <v>50010</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="B36" s="25"/>
       <c r="C36" s="8" t="s">
         <v>72</v>
       </c>
@@ -2644,7 +2664,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="11"/>
@@ -2654,44 +2674,40 @@
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" s="9"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H38" s="5" t="s">
         <v>6</v>
       </c>
@@ -2706,20 +2722,16 @@
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
         <v>6</v>
@@ -2734,18 +2746,28 @@
     </row>
     <row r="40" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
-      <c r="B40" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="B40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="7"/>
+      <c r="H40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
       <c r="L40" s="5"/>
@@ -2753,14 +2775,18 @@
     </row>
     <row r="41" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
+      <c r="B41" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="21"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="6"/>
+      <c r="I41" s="7"/>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
@@ -2843,23 +2869,31 @@
     </row>
     <row r="47" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
     </row>
+    <row r="49" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+    </row>
   </sheetData>
-  <sortState ref="E5:L41">
-    <sortCondition ref="I5:I41"/>
-    <sortCondition ref="J5:J41"/>
+  <sortState ref="E5:L42">
+    <sortCondition ref="I5:I42"/>
+    <sortCondition ref="J5:J42"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C25:C31"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2870,6 +2904,13 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C25:C32"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20369"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLRWORK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F500AB3-80F5-4613-87B2-7912AF65244F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4425632-A5C3-43A5-8239-13D53E8AA3CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
   <si>
     <t>用途</t>
   </si>
@@ -453,10 +453,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>VPN管理登录机</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>61-70</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -652,6 +648,10 @@
   </si>
   <si>
     <t>52-60</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程桌面</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1226,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,19 +1299,25 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,11 +1329,11 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="19" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1718,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1741,21 +1747,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1800,13 +1806,13 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
@@ -1829,9 +1835,9 @@
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="5" t="s">
         <v>51</v>
       </c>
@@ -1848,20 +1854,20 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>122</v>
+      <c r="C5" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>37</v>
@@ -1881,12 +1887,12 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1901,7 +1907,7 @@
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -1963,19 +1969,19 @@
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>37</v>
@@ -1984,7 +1990,7 @@
         <v>88</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
@@ -1994,19 +2000,19 @@
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>37</v>
@@ -2015,7 +2021,7 @@
         <v>88</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
@@ -2034,7 +2040,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="11"/>
@@ -2043,20 +2049,20 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="27" t="s">
-        <v>114</v>
+      <c r="B12" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>42</v>
@@ -2074,21 +2080,21 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="28"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>6</v>
@@ -2103,18 +2109,18 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="28"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>67</v>
@@ -2132,7 +2138,7 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="8" t="s">
         <v>72</v>
       </c>
@@ -2151,17 +2157,17 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>49</v>
@@ -2184,9 +2190,9 @@
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
@@ -2204,25 +2210,25 @@
         <v>9</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L17" s="13">
         <v>50010</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2234,9 +2240,9 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
@@ -2253,7 +2259,7 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="28"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="8" t="s">
         <v>72</v>
       </c>
@@ -2272,15 +2278,15 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>138</v>
+      <c r="D21" s="33" t="s">
+        <v>137</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>57</v>
@@ -2301,9 +2307,9 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2314,14 +2320,14 @@
       <c r="K22" s="6"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
@@ -2340,9 +2346,9 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="9" t="s">
         <v>69</v>
       </c>
@@ -2361,11 +2367,11 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>108</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>109</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>95</v>
@@ -2388,8 +2394,8 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="5" t="s">
         <v>96</v>
       </c>
@@ -2409,23 +2415,23 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>97</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="6"/>
@@ -2434,23 +2440,23 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="F28" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
@@ -2459,21 +2465,21 @@
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
@@ -2482,22 +2488,22 @@
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="24" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>99</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="34" t="s">
         <v>98</v>
       </c>
       <c r="J30" s="5">
@@ -2509,9 +2515,9 @@
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="25"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="5" t="s">
         <v>105</v>
       </c>
@@ -2522,9 +2528,7 @@
       <c r="H31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="I31" s="35"/>
       <c r="J31" s="5">
         <v>50875</v>
       </c>
@@ -2534,10 +2538,10 @@
     </row>
     <row r="32" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="28"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>100</v>
@@ -2559,7 +2563,7 @@
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="26"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="8" t="s">
         <v>72</v>
       </c>
@@ -2569,7 +2573,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="11"/>
@@ -2578,7 +2582,7 @@
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2617,7 +2621,7 @@
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="28"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="4" t="s">
         <v>46</v>
       </c>
@@ -2654,7 +2658,7 @@
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="25"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="8" t="s">
         <v>72</v>
       </c>
@@ -2664,7 +2668,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="11"/>
@@ -2776,7 +2780,7 @@
     <row r="41" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>26</v>
@@ -2893,7 +2897,15 @@
     <sortCondition ref="I5:I42"/>
     <sortCondition ref="J5:J42"/>
   </sortState>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C25:C32"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2904,13 +2916,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C25:C32"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4425632-A5C3-43A5-8239-13D53E8AA3CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDACC6FC-B6CF-4D06-BF5C-0AA18C41A09F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="157">
   <si>
     <t>用途</t>
   </si>
@@ -652,6 +652,10 @@
   </si>
   <si>
     <t>远程桌面</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows 10 Workstation</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1299,41 +1303,41 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1724,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1747,21 +1751,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1806,13 +1810,13 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
@@ -1835,9 +1839,9 @@
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>51</v>
       </c>
@@ -1854,13 +1858,13 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="26" t="s">
         <v>121</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1887,9 +1891,9 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>110</v>
@@ -2049,7 +2053,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="29" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2080,7 +2084,7 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="27"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="4" t="s">
         <v>120</v>
       </c>
@@ -2109,7 +2113,7 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="27"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="4" t="s">
         <v>120</v>
       </c>
@@ -2138,7 +2142,7 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="28"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="8" t="s">
         <v>72</v>
       </c>
@@ -2157,13 +2161,13 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -2190,8 +2194,8 @@
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="31"/>
       <c r="E17" s="13" t="s">
         <v>58</v>
@@ -2221,8 +2225,8 @@
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="31"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
@@ -2240,8 +2244,8 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="32"/>
       <c r="E19" s="5" t="s">
         <v>55</v>
@@ -2259,7 +2263,7 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="27"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="8" t="s">
         <v>72</v>
       </c>
@@ -2278,8 +2282,8 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="29" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="33" t="s">
@@ -2307,8 +2311,8 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="31"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
@@ -2325,8 +2329,8 @@
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="31"/>
       <c r="E23" s="5" t="s">
         <v>68</v>
@@ -2346,8 +2350,8 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="32"/>
       <c r="E24" s="9" t="s">
         <v>69</v>
@@ -2367,7 +2371,7 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="28" t="s">
         <v>107</v>
       </c>
       <c r="C25" s="33" t="s">
@@ -2394,7 +2398,7 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="30"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="31"/>
       <c r="D26" s="5" t="s">
         <v>96</v>
@@ -2415,7 +2419,7 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="30"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="31"/>
       <c r="D27" s="5" t="s">
         <v>143</v>
@@ -2440,7 +2444,7 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="30"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="31"/>
       <c r="D28" s="5" t="s">
         <v>149</v>
@@ -2465,7 +2469,7 @@
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="30"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="31"/>
       <c r="D29" s="23" t="s">
         <v>145</v>
@@ -2488,9 +2492,9 @@
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="30"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="31"/>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -2503,7 +2507,7 @@
       <c r="H30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="34" t="s">
+      <c r="I30" s="24" t="s">
         <v>98</v>
       </c>
       <c r="J30" s="5">
@@ -2515,9 +2519,9 @@
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="5" t="s">
         <v>105</v>
       </c>
@@ -2528,7 +2532,7 @@
       <c r="H31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="35"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="5">
         <v>50875</v>
       </c>
@@ -2538,8 +2542,8 @@
     </row>
     <row r="32" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="22" t="s">
         <v>138</v>
       </c>
@@ -2563,7 +2567,7 @@
     </row>
     <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="30"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="8" t="s">
         <v>72</v>
       </c>
@@ -2582,14 +2586,14 @@
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>44</v>
@@ -2621,7 +2625,7 @@
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="27"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="4" t="s">
         <v>46</v>
       </c>
@@ -2658,7 +2662,7 @@
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="28"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="8" t="s">
         <v>72</v>
       </c>
@@ -2898,14 +2902,6 @@
     <sortCondition ref="J5:J42"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C25:C32"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2916,6 +2912,14 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C25:C32"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDACC6FC-B6CF-4D06-BF5C-0AA18C41A09F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D6FC83-EDA5-4DE3-817A-9E8FF9ED98DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$43</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="162">
   <si>
     <t>用途</t>
   </si>
@@ -647,15 +647,35 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>52-60</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>远程桌面</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Windows 10 Workstation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RockyLinux</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3 RC1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.52</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>53-60</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1230,7 +1250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,25 +1323,34 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1332,12 +1361,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1726,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1751,21 +1774,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1810,13 +1833,13 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
@@ -1839,9 +1862,9 @@
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="5" t="s">
         <v>51</v>
       </c>
@@ -1858,13 +1881,13 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="30" t="s">
         <v>121</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1891,9 +1914,9 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>110</v>
@@ -2053,7 +2076,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2084,7 +2107,7 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="30"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="4" t="s">
         <v>120</v>
       </c>
@@ -2113,7 +2136,7 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="30"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="4" t="s">
         <v>120</v>
       </c>
@@ -2142,7 +2165,7 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="27"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="8" t="s">
         <v>72</v>
       </c>
@@ -2161,13 +2184,13 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -2194,9 +2217,9 @@
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
@@ -2225,9 +2248,9 @@
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
@@ -2244,9 +2267,9 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="32"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
@@ -2263,7 +2286,7 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="8" t="s">
         <v>72</v>
       </c>
@@ -2282,11 +2305,11 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="36" t="s">
         <v>137</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2311,9 +2334,9 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2329,9 +2352,9 @@
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
@@ -2350,9 +2373,9 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="32"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="9" t="s">
         <v>69</v>
       </c>
@@ -2371,10 +2394,10 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2398,8 +2421,8 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="5" t="s">
         <v>96</v>
       </c>
@@ -2419,8 +2442,8 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="5" t="s">
         <v>143</v>
       </c>
@@ -2444,8 +2467,8 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="5" t="s">
         <v>149</v>
       </c>
@@ -2469,8 +2492,8 @@
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="31"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="23" t="s">
         <v>145</v>
       </c>
@@ -2492,22 +2515,22 @@
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="26" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>99</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="31" t="s">
         <v>98</v>
       </c>
       <c r="J30" s="5">
@@ -2519,9 +2542,9 @@
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="27"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="5" t="s">
         <v>105</v>
       </c>
@@ -2532,7 +2555,7 @@
       <c r="H31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="25"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="5">
         <v>50875</v>
       </c>
@@ -2542,8 +2565,8 @@
     </row>
     <row r="32" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="22" t="s">
         <v>138</v>
       </c>
@@ -2565,75 +2588,63 @@
       <c r="L32" s="5"/>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="8"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J34" s="5">
-        <v>9</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L34" s="5">
-        <v>50009</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="30"/>
+      <c r="B35" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="C35" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>60</v>
@@ -2645,7 +2656,7 @@
         <v>6</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J35" s="5">
         <v>9</v>
@@ -2654,36 +2665,52 @@
         <v>38</v>
       </c>
       <c r="L35" s="5">
-        <v>50010</v>
+        <v>50009</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="8"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J36" s="5">
+        <v>9</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="5">
+        <v>50010</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="B37" s="29"/>
       <c r="C37" s="8" t="s">
         <v>72</v>
       </c>
@@ -2693,7 +2720,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="10" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="11"/>
@@ -2703,44 +2730,40 @@
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H39" s="5" t="s">
         <v>6</v>
       </c>
@@ -2755,20 +2778,16 @@
     <row r="40" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
         <v>6</v>
@@ -2783,18 +2802,28 @@
     </row>
     <row r="41" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="B41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="7"/>
+      <c r="H41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
@@ -2802,14 +2831,18 @@
     </row>
     <row r="42" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
+      <c r="B42" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="21"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
+      <c r="I42" s="7"/>
       <c r="J42" s="5"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
@@ -2892,16 +2925,39 @@
     </row>
     <row r="48" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
     </row>
+    <row r="50" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+    </row>
   </sheetData>
-  <sortState ref="E5:L42">
-    <sortCondition ref="I5:I42"/>
-    <sortCondition ref="J5:J42"/>
+  <sortState ref="E5:L43">
+    <sortCondition ref="I5:I43"/>
+    <sortCondition ref="J5:J43"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C25:C32"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2912,14 +2968,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C25:C32"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/家庭网络结构信息.xlsx
+++ b/家庭网络结构信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D6FC83-EDA5-4DE3-817A-9E8FF9ED98DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF6508-BA29-4514-B39F-21EA9032B73A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络功能信息!$E$5:$K$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="157">
   <si>
     <t>用途</t>
   </si>
@@ -578,11 +578,6 @@
   </si>
   <si>
     <t>Windows Server
-2019 DataCenter</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows Server
 2019 Standard</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -627,22 +622,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Ubuntu2004alpha</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>LEDE/Openwrt编译</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>原版Openwrt编译</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.1.46</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -655,27 +638,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>RockyLinux</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.3 RC1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>学习</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>临时</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.52</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>53-60</t>
+    <t>Debian1.0.90</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOW Server</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>52-60</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrueNAS Core</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1250,7 +1229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1323,44 +1302,41 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1749,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1774,21 +1750,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1833,13 +1809,13 @@
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
@@ -1862,9 +1838,9 @@
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="5" t="s">
         <v>51</v>
       </c>
@@ -1881,13 +1857,13 @@
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="26" t="s">
         <v>121</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1914,9 +1890,9 @@
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
         <v>110</v>
@@ -2076,7 +2052,7 @@
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="29" t="s">
         <v>113</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2107,7 +2083,7 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="28"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="4" t="s">
         <v>120</v>
       </c>
@@ -2136,7 +2112,7 @@
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="28"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="4" t="s">
         <v>120</v>
       </c>
@@ -2165,7 +2141,7 @@
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="8" t="s">
         <v>72</v>
       </c>
@@ -2184,17 +2160,17 @@
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>49</v>
@@ -2217,9 +2193,9 @@
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="13" t="s">
         <v>58</v>
       </c>
@@ -2248,14 +2224,14 @@
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="34"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2267,9 +2243,9 @@
     </row>
     <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="35"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
@@ -2286,7 +2262,7 @@
     </row>
     <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
-      <c r="B20" s="28"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="8" t="s">
         <v>72</v>
       </c>
@@ -2305,15 +2281,15 @@
     </row>
     <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>137</v>
+      <c r="D21" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>57</v>
@@ -2334,9 +2310,9 @@
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="34"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2347,14 +2323,14 @@
       <c r="K22" s="6"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
@@ -2373,9 +2349,9 @@
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="9" t="s">
         <v>69</v>
       </c>
@@ -2394,10 +2370,10 @@
     </row>
     <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="33" t="s">
         <v>108</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2421,8 +2397,8 @@
     </row>
     <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="5" t="s">
         <v>96</v>
       </c>
@@ -2442,23 +2418,23 @@
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>97</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="6"/>
@@ -2467,23 +2443,23 @@
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>152</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
@@ -2492,21 +2468,21 @@
     </row>
     <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="6"/>
@@ -2515,22 +2491,22 @@
     </row>
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="30" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>99</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="24" t="s">
         <v>98</v>
       </c>
       <c r="J30" s="5">
@@ -2542,9 +2518,9 @@
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="5" t="s">
         <v>105</v>
       </c>
@@ -2555,7 +2531,7 @@
       <c r="H31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I31" s="32"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="5">
         <v>50875</v>
       </c>
@@ -2565,10 +2541,10 @@
     </row>
     <row r="32" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>100</v>
@@ -2588,63 +2564,75 @@
       <c r="L32" s="5"/>
       <c r="M32" s="18"/>
     </row>
-    <row r="33" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="18"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="8"/>
+      <c r="B34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="5">
+        <v>9</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="5">
+        <v>50009</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
-      <c r="B35" s="27" t="s">
-        <v>17</v>
-      </c>
+      <c r="B35" s="30"/>
       <c r="C35" s="4" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>60</v>
@@ -2656,7 +2644,7 @@
         <v>6</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J35" s="5">
         <v>9</v>
@@ -2665,52 +2653,36 @@
         <v>38</v>
       </c>
       <c r="L35" s="5">
-        <v>50009</v>
+        <v>50010</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J36" s="5">
-        <v>9</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="5">
-        <v>50010</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="9"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
-      <c r="B37" s="29"/>
+      <c r="B37" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C37" s="8" t="s">
         <v>72</v>
       </c>
@@ -2720,7 +2692,7 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="10" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="11"/>
@@ -2730,40 +2702,44 @@
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
         <v>6</v>
       </c>
@@ -2778,16 +2754,20 @@
     <row r="40" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
         <v>6</v>
@@ -2802,28 +2782,18 @@
     </row>
     <row r="41" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="B41" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="7"/>
       <c r="J41" s="5"/>
       <c r="K41" s="6"/>
       <c r="L41" s="5"/>
@@ -2831,18 +2801,14 @@
     </row>
     <row r="42" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
-      <c r="B42" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="21"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="7"/>
+      <c r="I42" s="6"/>
       <c r="J42" s="5"/>
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
@@ -2925,39 +2891,16 @@
     </row>
     <row r="48" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="4"/>
     </row>
     <row r="49" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4"/>
-    </row>
   </sheetData>
-  <sortState ref="E5:L43">
-    <sortCondition ref="I5:I43"/>
-    <sortCondition ref="J5:J43"/>
+  <sortState ref="E5:L42">
+    <sortCondition ref="I5:I42"/>
+    <sortCondition ref="J5:J42"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C25:C32"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C21:C24"/>
@@ -2968,6 +2911,14 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B24"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C25:C32"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
